--- a/DH/PTUD HTTT HD/PTUD HTTT HD/Topic/DanhSachPhanCongChuDe.xlsx
+++ b/DH/PTUD HTTT HD/PTUD HTTT HD/Topic/DanhSachPhanCongChuDe.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="7995" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="7995" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,14 @@
     <sheet name="SOLID in NET" sheetId="7" r:id="rId5"/>
     <sheet name="Big Data" sheetId="8" r:id="rId6"/>
     <sheet name="Hadoop" sheetId="10" r:id="rId7"/>
+    <sheet name="Apache Pig" sheetId="11" r:id="rId8"/>
+    <sheet name="Apache Hive" sheetId="12" r:id="rId9"/>
+    <sheet name="Amazon S3" sheetId="13" r:id="rId10"/>
+    <sheet name="Spark" sheetId="14" r:id="rId11"/>
+    <sheet name="Apache Storm" sheetId="15" r:id="rId12"/>
+    <sheet name="Sheet3" sheetId="18" r:id="rId13"/>
+    <sheet name="kafka" sheetId="17" r:id="rId14"/>
+    <sheet name="Cassandra" sheetId="16" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cover!$A$1:$D$1</definedName>
@@ -28,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="98">
   <si>
     <t>STT</t>
   </si>
@@ -224,6 +232,124 @@
   <si>
     <t>Nguyên lý/ Cơ chế lưu trữ</t>
   </si>
+  <si>
+    <t>Giới thiệu Apache Pig</t>
+  </si>
+  <si>
+    <t>Load &amp; Store Operators</t>
+  </si>
+  <si>
+    <t>Grouping &amp; Joining</t>
+  </si>
+  <si>
+    <t>Pig Latin Built-In Functions</t>
+  </si>
+  <si>
+    <t>Giới thiệu  Apache Hive</t>
+  </si>
+  <si>
+    <t>Create, Drop, Alter, Partitioning Database</t>
+  </si>
+  <si>
+    <t>Hive SQL (Where, Order By, Group By, Joins)</t>
+  </si>
+  <si>
+    <t>Sơ sài, cần phải làm rõ chi tiết hơn</t>
+  </si>
+  <si>
+    <t>Chưa làm nổi bật Apache Hive</t>
+  </si>
+  <si>
+    <t>không demo, chỉ paste nội dung câu truy vấn trên slide, sơ sài</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presenter: </t>
+  </si>
+  <si>
+    <t>Date: 24-11-2017</t>
+  </si>
+  <si>
+    <t>1412185, 1412193, 1412240</t>
+  </si>
+  <si>
+    <t>Chưa làm nổi bật</t>
+  </si>
+  <si>
+    <t>Sơ sài, không nổi bật</t>
+  </si>
+  <si>
+    <t>Chưa rõ làm thế nào để cài đặt Apache Pig</t>
+  </si>
+  <si>
+    <t>Không có ví dụ mang tính hệ thống, rời rạc gây khó hiểu người nghe</t>
+  </si>
+  <si>
+    <t>1312440: Nguyễn Hoàng Phúc
+1312618: Nguyễn Thanh Trà
+1312293: Trần Xuân khoa
+1312024: Phạm Trọng Ân</t>
+  </si>
+  <si>
+    <t>Giới thiệu Amazon S3</t>
+  </si>
+  <si>
+    <t>Sử dụng một ASW SDK for Java hoặc .NET</t>
+  </si>
+  <si>
+    <t>Công trình nghiên cứu tham chiếu ASW S3</t>
+  </si>
+  <si>
+    <t>So sánh với Hadoop</t>
+  </si>
+  <si>
+    <t>1412529
+1412270
+1412370
+1412359
+1412360</t>
+  </si>
+  <si>
+    <t>Giới thiệu  Apache Spark</t>
+  </si>
+  <si>
+    <t>RDD</t>
+  </si>
+  <si>
+    <t>Lập trình cơ bản Spark + Scala + intelliJ</t>
+  </si>
+  <si>
+    <t>Cho một ví dụ Spark kết hợp cùng Hadoop</t>
+  </si>
+  <si>
+    <t>Ko giải thích chỉ đọc trên slide</t>
+  </si>
+  <si>
+    <t>Configuration, management, building, testing, automated, notification</t>
+  </si>
+  <si>
+    <t>Thuyết trình cả nhóm</t>
+  </si>
+  <si>
+    <t>Date: 15-12-2017</t>
+  </si>
+  <si>
+    <t>Giới thiệu kafka</t>
+  </si>
+  <si>
+    <t>Apache Kafka - Basic Operations</t>
+  </si>
+  <si>
+    <t>Apache Kafka - Integration With Spark (Có demo)</t>
+  </si>
+  <si>
+    <t>Giới thiệu Cassandra</t>
+  </si>
+  <si>
+    <t>Create, Drop, Alter, Query</t>
+  </si>
+  <si>
+    <t>Cassandra - CQL Collections</t>
+  </si>
 </sst>
 </file>
 
@@ -232,7 +358,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +415,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -470,7 +603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -533,12 +666,1119 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="117">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFA6A6A6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFA6A6A6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFA6A6A6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFA6A6A6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFA6A6A6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFA6A6A6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1555,33 +2795,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52" tableBorderDxfId="51" totalsRowBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115" tableBorderDxfId="114" totalsRowBorderDxfId="113">
   <tableColumns count="5">
-    <tableColumn id="1" name="Column1" dataDxfId="49"/>
-    <tableColumn id="2" name="Column2" dataDxfId="48"/>
-    <tableColumn id="3" name="Column3" dataDxfId="47"/>
-    <tableColumn id="4" name="Column4" dataDxfId="46"/>
-    <tableColumn id="5" name="Column5" dataDxfId="45"/>
+    <tableColumn id="1" name="Column1" dataDxfId="112"/>
+    <tableColumn id="2" name="Column2" dataDxfId="111"/>
+    <tableColumn id="3" name="Column3" dataDxfId="110"/>
+    <tableColumn id="4" name="Column4" dataDxfId="109"/>
+    <tableColumn id="5" name="Column5" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:E17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42" totalsRowBorderDxfId="41">
-  <tableColumns count="5">
-    <tableColumn id="1" name="Column1" dataDxfId="40"/>
-    <tableColumn id="2" name="Column2" dataDxfId="39"/>
-    <tableColumn id="3" name="Column3" dataDxfId="38"/>
-    <tableColumn id="4" name="Column4" dataDxfId="37"/>
-    <tableColumn id="5" name="Column5" dataDxfId="36"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table146" displayName="Table146" ref="A1:E17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table146735891011" displayName="Table146735891011" ref="A1:E17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
   <tableColumns count="5">
     <tableColumn id="1" name="Column1" dataDxfId="31"/>
     <tableColumn id="2" name="Column2" dataDxfId="30"/>
@@ -1589,12 +2816,12 @@
     <tableColumn id="4" name="Column4" dataDxfId="28"/>
     <tableColumn id="5" name="Column5" dataDxfId="27"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1467" displayName="Table1467" ref="A1:E17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table14673589101112" displayName="Table14673589101112" ref="A1:E17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <tableColumns count="5">
     <tableColumn id="1" name="Column1" dataDxfId="22"/>
     <tableColumn id="2" name="Column2" dataDxfId="21"/>
@@ -1606,8 +2833,21 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table14673" displayName="Table14673" ref="A1:E17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table146735891011121314" displayName="Table146735891011121314" ref="A1:E17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Column1" dataDxfId="4"/>
+    <tableColumn id="2" name="Column2" dataDxfId="3"/>
+    <tableColumn id="3" name="Column3" dataDxfId="2"/>
+    <tableColumn id="4" name="Column4" dataDxfId="1"/>
+    <tableColumn id="5" name="Column5" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1467358910111213" displayName="Table1467358910111213" ref="A1:E17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <tableColumns count="5">
     <tableColumn id="1" name="Column1" dataDxfId="13"/>
     <tableColumn id="2" name="Column2" dataDxfId="12"/>
@@ -1619,14 +2859,105 @@
 </table>
 </file>
 
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:E17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106" tableBorderDxfId="105" totalsRowBorderDxfId="104">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Column1" dataDxfId="103"/>
+    <tableColumn id="2" name="Column2" dataDxfId="102"/>
+    <tableColumn id="3" name="Column3" dataDxfId="101"/>
+    <tableColumn id="4" name="Column4" dataDxfId="100"/>
+    <tableColumn id="5" name="Column5" dataDxfId="99"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table146" displayName="Table146" ref="A1:E17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97" tableBorderDxfId="96" totalsRowBorderDxfId="95">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Column1" dataDxfId="94"/>
+    <tableColumn id="2" name="Column2" dataDxfId="93"/>
+    <tableColumn id="3" name="Column3" dataDxfId="92"/>
+    <tableColumn id="4" name="Column4" dataDxfId="91"/>
+    <tableColumn id="5" name="Column5" dataDxfId="90"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table1467" displayName="Table1467" ref="A1:E17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88" tableBorderDxfId="87" totalsRowBorderDxfId="86">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Column1" dataDxfId="85"/>
+    <tableColumn id="2" name="Column2" dataDxfId="84"/>
+    <tableColumn id="3" name="Column3" dataDxfId="83"/>
+    <tableColumn id="4" name="Column4" dataDxfId="82"/>
+    <tableColumn id="5" name="Column5" dataDxfId="81"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table14673" displayName="Table14673" ref="A1:E17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79" tableBorderDxfId="78" totalsRowBorderDxfId="77">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Column1" dataDxfId="76"/>
+    <tableColumn id="2" name="Column2" dataDxfId="75"/>
+    <tableColumn id="3" name="Column3" dataDxfId="74"/>
+    <tableColumn id="4" name="Column4" dataDxfId="73"/>
+    <tableColumn id="5" name="Column5" dataDxfId="72"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table146735" displayName="Table146735" ref="A1:E17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table146735" displayName="Table146735" ref="A1:E17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70" tableBorderDxfId="69" totalsRowBorderDxfId="68">
   <tableColumns count="5">
-    <tableColumn id="1" name="Column1" dataDxfId="4"/>
-    <tableColumn id="2" name="Column2" dataDxfId="3"/>
-    <tableColumn id="3" name="Column3" dataDxfId="2"/>
-    <tableColumn id="4" name="Column4" dataDxfId="1"/>
-    <tableColumn id="5" name="Column5" dataDxfId="0"/>
+    <tableColumn id="1" name="Column1" dataDxfId="67"/>
+    <tableColumn id="2" name="Column2" dataDxfId="66"/>
+    <tableColumn id="3" name="Column3" dataDxfId="65"/>
+    <tableColumn id="4" name="Column4" dataDxfId="64"/>
+    <tableColumn id="5" name="Column5" dataDxfId="63"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table1467358" displayName="Table1467358" ref="A1:E16" headerRowCount="0" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" tableBorderDxfId="60" totalsRowBorderDxfId="59">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Column1" dataDxfId="58"/>
+    <tableColumn id="2" name="Column2" dataDxfId="57"/>
+    <tableColumn id="3" name="Column3" dataDxfId="56"/>
+    <tableColumn id="4" name="Column4" dataDxfId="55"/>
+    <tableColumn id="5" name="Column5" dataDxfId="54"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table14673589" displayName="Table14673589" ref="A1:E17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52" tableBorderDxfId="51" totalsRowBorderDxfId="50">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Column1" dataDxfId="49"/>
+    <tableColumn id="2" name="Column2" dataDxfId="48"/>
+    <tableColumn id="3" name="Column3" dataDxfId="47"/>
+    <tableColumn id="4" name="Column4" dataDxfId="46"/>
+    <tableColumn id="5" name="Column5" dataDxfId="45"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1467358910" displayName="Table1467358910" ref="A1:E17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42" totalsRowBorderDxfId="41">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Column1" dataDxfId="40"/>
+    <tableColumn id="2" name="Column2" dataDxfId="39"/>
+    <tableColumn id="3" name="Column3" dataDxfId="38"/>
+    <tableColumn id="4" name="Column4" dataDxfId="37"/>
+    <tableColumn id="5" name="Column5" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1955,8 +3286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2200,6 +3531,1104 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="28"/>
+    <col min="2" max="2" width="41.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" style="28" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="23">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20">
+        <v>1</v>
+      </c>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="23">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20">
+        <v>0</v>
+      </c>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1</v>
+      </c>
+      <c r="D4" s="19">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="23">
+        <v>2</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="23">
+        <v>2</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0</v>
+      </c>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="23">
+        <v>2</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="23">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+    </row>
+    <row r="16" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="28"/>
+    <col min="2" max="2" width="41.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" style="28" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="23">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20">
+        <v>1</v>
+      </c>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="23">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20">
+        <v>1</v>
+      </c>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="23">
+        <v>2</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="23">
+        <v>2</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1</v>
+      </c>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="23">
+        <v>2</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="23">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+    </row>
+    <row r="16" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="28"/>
+    <col min="2" max="2" width="41.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" style="28" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="23">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20">
+        <v>1</v>
+      </c>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="23">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20">
+        <v>1</v>
+      </c>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1</v>
+      </c>
+      <c r="D4" s="19">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="23">
+        <v>2</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="23">
+        <v>3</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0</v>
+      </c>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="23">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="23">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+    </row>
+    <row r="16" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="28"/>
+    <col min="2" max="2" width="46.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" style="28" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="43">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20">
+        <v>1</v>
+      </c>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="43">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="43">
+        <v>1</v>
+      </c>
+      <c r="D4" s="19">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="43">
+        <v>2</v>
+      </c>
+      <c r="D5" s="19">
+        <v>1</v>
+      </c>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="43">
+        <v>3</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1</v>
+      </c>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="43">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="43">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+    </row>
+    <row r="16" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="28"/>
+    <col min="2" max="2" width="41.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" style="28" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="23">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20">
+        <v>1</v>
+      </c>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="23">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20">
+        <v>1</v>
+      </c>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1</v>
+      </c>
+      <c r="D4" s="19">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="23">
+        <v>2</v>
+      </c>
+      <c r="D5" s="19">
+        <v>2</v>
+      </c>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="23">
+        <v>2</v>
+      </c>
+      <c r="D6" s="19">
+        <v>2</v>
+      </c>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="23">
+        <v>2</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="23">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+    </row>
+    <row r="16" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2639,7 +5068,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3278,8 +5707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3485,4 +5914,449 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="28"/>
+    <col min="2" max="2" width="27.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="23">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="23">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="23">
+        <v>2</v>
+      </c>
+      <c r="D5" s="19">
+        <v>1</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="23">
+        <v>2</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="23">
+        <v>2</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="23">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+    </row>
+    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+    </row>
+    <row r="16" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="28"/>
+    <col min="2" max="2" width="27.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="23">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20">
+        <v>1</v>
+      </c>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="23">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="23">
+        <v>2</v>
+      </c>
+      <c r="D5" s="19">
+        <v>1</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="23">
+        <v>2</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="23">
+        <v>2</v>
+      </c>
+      <c r="D7" s="19">
+        <v>2</v>
+      </c>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="23">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+    </row>
+    <row r="16" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/DH/PTUD HTTT HD/PTUD HTTT HD/Topic/DanhSachPhanCongChuDe.xlsx
+++ b/DH/PTUD HTTT HD/PTUD HTTT HD/Topic/DanhSachPhanCongChuDe.xlsx
@@ -5,24 +5,24 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\khtn\DH\PTUD HTTT HD\PTUD HTTT HD\Topic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University WorkSpace\khtn\DH\PTUD HTTT HD\PTUD HTTT HD\Topic\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="7995" firstSheet="8" activeTab="14"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
-    <sheet name="SOLID in Java" sheetId="2" r:id="rId2"/>
-    <sheet name="Jenskin" sheetId="5" r:id="rId3"/>
-    <sheet name="LogStash" sheetId="6" r:id="rId4"/>
-    <sheet name="SOLID in NET" sheetId="7" r:id="rId5"/>
-    <sheet name="Big Data" sheetId="8" r:id="rId6"/>
-    <sheet name="Hadoop" sheetId="10" r:id="rId7"/>
-    <sheet name="Apache Pig" sheetId="11" r:id="rId8"/>
-    <sheet name="Apache Hive" sheetId="12" r:id="rId9"/>
-    <sheet name="Amazon S3" sheetId="13" r:id="rId10"/>
-    <sheet name="Spark" sheetId="14" r:id="rId11"/>
+    <sheet name="SOLID in Java" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Jenskin" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="LogStash" sheetId="6" state="hidden" r:id="rId4"/>
+    <sheet name="SOLID in NET" sheetId="7" state="hidden" r:id="rId5"/>
+    <sheet name="Big Data" sheetId="8" state="hidden" r:id="rId6"/>
+    <sheet name="Hadoop" sheetId="10" state="hidden" r:id="rId7"/>
+    <sheet name="Apache Pig" sheetId="11" state="hidden" r:id="rId8"/>
+    <sheet name="Apache Hive" sheetId="12" state="hidden" r:id="rId9"/>
+    <sheet name="Amazon S3" sheetId="13" state="hidden" r:id="rId10"/>
+    <sheet name="Spark" sheetId="14" state="hidden" r:id="rId11"/>
     <sheet name="Apache Storm" sheetId="15" r:id="rId12"/>
     <sheet name="Sheet3" sheetId="18" r:id="rId13"/>
     <sheet name="kafka" sheetId="17" r:id="rId14"/>
@@ -31,12 +31,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cover!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="100">
   <si>
     <t>STT</t>
   </si>
@@ -349,6 +349,12 @@
   </si>
   <si>
     <t>Cassandra - CQL Collections</t>
+  </si>
+  <si>
+    <t>Điểm</t>
+  </si>
+  <si>
+    <t>Tổng</t>
   </si>
 </sst>
 </file>
@@ -603,7 +609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -688,6 +694,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -2834,26 +2844,26 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table146735891011121314" displayName="Table146735891011121314" ref="A1:E17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table146735891011121314" displayName="Table146735891011121314" ref="A1:E17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Column1" dataDxfId="13"/>
+    <tableColumn id="2" name="Column2" dataDxfId="12"/>
+    <tableColumn id="3" name="Column3" dataDxfId="11"/>
+    <tableColumn id="4" name="Column4" dataDxfId="10"/>
+    <tableColumn id="5" name="Column5" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1467358910111213" displayName="Table1467358910111213" ref="A1:E17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <tableColumns count="5">
     <tableColumn id="1" name="Column1" dataDxfId="4"/>
     <tableColumn id="2" name="Column2" dataDxfId="3"/>
     <tableColumn id="3" name="Column3" dataDxfId="2"/>
     <tableColumn id="4" name="Column4" dataDxfId="1"/>
     <tableColumn id="5" name="Column5" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1467358910111213" displayName="Table1467358910111213" ref="A1:E17" headerRowCount="0" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <tableColumns count="5">
-    <tableColumn id="1" name="Column1" dataDxfId="13"/>
-    <tableColumn id="2" name="Column2" dataDxfId="12"/>
-    <tableColumn id="3" name="Column3" dataDxfId="11"/>
-    <tableColumn id="4" name="Column4" dataDxfId="10"/>
-    <tableColumn id="5" name="Column5" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3284,10 +3294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3295,12 +3305,12 @@
     <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3313,8 +3323,14 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3327,8 +3343,15 @@
       <c r="D2" s="3">
         <v>43021</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F2" s="44">
+        <f>(E2+E3)/2</f>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3341,8 +3364,12 @@
       <c r="D3" s="3">
         <v>43021</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="44"/>
+    </row>
+    <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3355,8 +3382,15 @@
       <c r="D4" s="3">
         <v>43028</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <v>9</v>
+      </c>
+      <c r="F4" s="45">
+        <f>SUM(E4:E5)/2</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3369,8 +3403,12 @@
       <c r="D5" s="3">
         <v>43028</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="45"/>
+    </row>
+    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3383,8 +3421,15 @@
       <c r="D6" s="3">
         <v>43035</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="F6" s="45">
+        <f>SUM(E6:E7)/2</f>
+        <v>7.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3397,8 +3442,12 @@
       <c r="D7" s="3">
         <v>43042</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>7</v>
+      </c>
+      <c r="F7" s="45"/>
+    </row>
+    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3411,8 +3460,15 @@
       <c r="D8" s="3">
         <v>43049</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="F8" s="45">
+        <f>SUM(E8:E9)/2</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3425,8 +3481,12 @@
       <c r="D9" s="3">
         <v>43049</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="F9" s="45"/>
+    </row>
+    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3439,8 +3499,11 @@
       <c r="D10" s="3">
         <v>43056</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3453,8 +3516,15 @@
       <c r="D11" s="3">
         <v>43063</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F11" s="45">
+        <f>SUM(E11:E12)/2</f>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3467,8 +3537,12 @@
       <c r="D12" s="3">
         <v>43070</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="45"/>
+    </row>
+    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3481,8 +3555,11 @@
       <c r="D13" s="3">
         <v>43077</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="45">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3495,8 +3572,12 @@
       <c r="D14" s="3">
         <v>43077</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <v>9</v>
+      </c>
+      <c r="F14" s="45"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3509,8 +3590,9 @@
       <c r="D15" s="3">
         <v>43084</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15" s="45"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3522,6 +3604,12 @@
       </c>
       <c r="D16" s="3">
         <v>43084</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3529,6 +3617,14 @@
   <sortState ref="A2:D16">
     <sortCondition ref="D2:D16"/>
   </sortState>
+  <mergeCells count="6">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F11:F12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3539,7 +3635,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3689,7 +3785,10 @@
       <c r="C10" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="17">
+        <f>SUM(D2:D8)</f>
+        <v>4.5</v>
+      </c>
       <c r="E10" s="18" t="s">
         <v>72</v>
       </c>
@@ -3756,7 +3855,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3908,7 +4007,10 @@
       <c r="C10" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="17">
+        <f>SUM(D2:D8)</f>
+        <v>4.5</v>
+      </c>
       <c r="E10" s="18" t="s">
         <v>72</v>
       </c>
@@ -3975,7 +4077,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4125,7 +4227,10 @@
       <c r="C10" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="17">
+        <f>SUM(D2:D8)</f>
+        <v>5</v>
+      </c>
       <c r="E10" s="18" t="s">
         <v>91</v>
       </c>
@@ -4191,7 +4296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -4204,7 +4309,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4341,7 +4446,10 @@
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="D9" s="14">
+        <f>SUM(D2:D8)</f>
+        <v>6</v>
+      </c>
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4419,8 +4527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4559,7 +4667,10 @@
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="D9" s="14">
+        <f>SUM(D2:D8)</f>
+        <v>9</v>
+      </c>
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4637,7 +4748,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4780,7 +4891,10 @@
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="D9" s="14">
+        <f>SUM(D2:D8)</f>
+        <v>5</v>
+      </c>
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4853,7 +4967,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4992,7 +5106,10 @@
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="D9" s="14">
+        <f>SUM(D2:D8)</f>
+        <v>9</v>
+      </c>
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5068,7 +5185,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5207,7 +5324,10 @@
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="D9" s="14">
+        <f>SUM(D2:D8)</f>
+        <v>4</v>
+      </c>
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5282,7 +5402,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5421,7 +5541,10 @@
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="D9" s="14">
+        <f>SUM(D2:D8)</f>
+        <v>2.5</v>
+      </c>
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5495,7 +5618,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5634,7 +5757,10 @@
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="D9" s="14">
+        <f>SUM(D2:D8)</f>
+        <v>8.25</v>
+      </c>
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5708,7 +5834,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5856,7 +5982,10 @@
         <v>56</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="D10" s="14">
+        <f>SUM(D2:D8)</f>
+        <v>7</v>
+      </c>
       <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5921,7 +6050,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6090,7 +6219,10 @@
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
+      <c r="D11" s="35">
+        <f>SUM(D2:D8)</f>
+        <v>4.25</v>
+      </c>
       <c r="E11" s="35"/>
     </row>
     <row r="12" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6141,7 +6273,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6288,7 +6420,10 @@
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="D9" s="14">
+        <f>SUM(D2:D8)</f>
+        <v>6.75</v>
+      </c>
       <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
